--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>loves</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -58,91 +61,94 @@
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>best</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>cheese</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>tea</t>
@@ -151,15 +157,6 @@
     <t>pan</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
@@ -172,22 +169,19 @@
     <t>recommend</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>positive</t>
@@ -548,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.310077519379845</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -659,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,13 +661,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +687,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +713,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8529411764705882</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>551</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>551</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -737,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -745,13 +739,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8260869565217391</v>
+        <v>0.8560371517027864</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>553</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>553</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -763,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -771,13 +765,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7532467532467533</v>
+        <v>0.7922077922077922</v>
       </c>
       <c r="L8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -789,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -797,13 +791,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7045454545454546</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -815,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -823,13 +817,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7012987012987013</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L10">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -841,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -849,13 +843,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.6915254237288135</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L11">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -867,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -875,13 +869,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -893,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -901,13 +895,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6575342465753424</v>
+        <v>0.6508474576271186</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -919,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -927,13 +921,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6491228070175439</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -945,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -953,13 +947,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6338028169014085</v>
+        <v>0.6260032102728732</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>780</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>780</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -971,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -979,13 +973,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6292134831460674</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L16">
-        <v>784</v>
+        <v>106</v>
       </c>
       <c r="M16">
-        <v>784</v>
+        <v>106</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -997,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>462</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1005,13 +999,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6114285714285714</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L17">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1023,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1031,13 +1025,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6111111111111112</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1049,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1057,13 +1051,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.5857142857142857</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1083,13 +1077,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.5625</v>
+        <v>0.53125</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1101,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1109,13 +1103,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5384615384615384</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1127,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1135,13 +1129,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5096153846153846</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L22">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1153,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1161,13 +1155,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5060240963855421</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1179,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1187,13 +1181,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5037593984962406</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L24">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M24">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1205,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1213,13 +1207,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.4850299401197605</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1231,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1239,13 +1233,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.4910179640718563</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L26">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1257,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1265,13 +1259,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.4786324786324787</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L27">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1283,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1291,13 +1285,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.47</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L28">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="M28">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1309,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1317,13 +1311,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.3703703703703703</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1335,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1343,13 +1337,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.3554216867469879</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L30">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="M30">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1361,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1369,13 +1363,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.3357843137254902</v>
+        <v>0.35</v>
       </c>
       <c r="L31">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1387,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>271</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1395,13 +1389,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.3268482490272374</v>
+        <v>0.3357843137254902</v>
       </c>
       <c r="L32">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="M32">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1413,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>173</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1421,13 +1415,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.3157894736842105</v>
+        <v>0.3229571984435798</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1439,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>91</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1447,13 +1441,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.2794520547945206</v>
+        <v>0.2835616438356164</v>
       </c>
       <c r="L34">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M34">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1465,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1473,13 +1467,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.2792792792792793</v>
+        <v>0.247578040904198</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1491,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>80</v>
+        <v>699</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1499,13 +1493,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.2517985611510791</v>
+        <v>0.2344497607655502</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1517,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>104</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1525,13 +1519,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.231974921630094</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L37">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="M37">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1543,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>245</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1551,13 +1545,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.2260495156081808</v>
+        <v>0.2086330935251799</v>
       </c>
       <c r="L38">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1569,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>719</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1577,13 +1571,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.2185430463576159</v>
+        <v>0.1880877742946709</v>
       </c>
       <c r="L39">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1595,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>118</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1603,13 +1597,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.1818181818181818</v>
+        <v>0.1827814569536424</v>
       </c>
       <c r="L40">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="M40">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1621,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>171</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1629,13 +1623,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.1814569536423841</v>
+        <v>0.1585677749360614</v>
       </c>
       <c r="L41">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M41">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1647,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>618</v>
+        <v>658</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1655,13 +1649,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.1585677749360614</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L42">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="M42">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1673,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>658</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1681,13 +1675,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.1099656357388316</v>
+        <v>0.1051212938005391</v>
       </c>
       <c r="L43">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M43">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1699,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>259</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1707,25 +1701,25 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.1027027027027027</v>
+        <v>0.09545454545454546</v>
       </c>
       <c r="L44">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M44">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>332</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1733,13 +1727,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.1021897810218978</v>
+        <v>0.08759124087591241</v>
       </c>
       <c r="L45">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M45">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1751,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1759,13 +1753,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.1008771929824561</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="L46">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M46">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1777,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1785,25 +1779,25 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.09772727272727273</v>
+        <v>0.054519368723099</v>
       </c>
       <c r="L47">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M47">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>397</v>
+        <v>659</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1811,13 +1805,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.06599713055954089</v>
+        <v>0.0457516339869281</v>
       </c>
       <c r="L48">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M48">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N48">
         <v>0.98</v>
@@ -1829,59 +1823,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K49">
-        <v>0.05503731343283582</v>
-      </c>
-      <c r="L49">
-        <v>59</v>
-      </c>
-      <c r="M49">
-        <v>59</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K50">
-        <v>0.02852203975799482</v>
-      </c>
-      <c r="L50">
-        <v>33</v>
-      </c>
-      <c r="M50">
-        <v>33</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>1124</v>
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
